--- a/Akan/Ananse5/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse5/AkanEnglishAligned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF4A384-6C5F-46F6-A62C-43E7FB8A1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9447DA-6069-49ED-966B-44A6BAB16DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32340" yWindow="885" windowWidth="24180" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="25515" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>M'anansesem a metooye yi, se eye de o, se ennye de o, momfa bi nko, na momfa bi mmera.</t>
   </si>
   <si>
-    <t>We do not real{), mean, we do not real[y mean, (that what we are going to say is true)</t>
-  </si>
-  <si>
     <t>WHY ANANSE, THE SPIDER, RUNS WHEN HE IS ON THE SURFACE OF THE WATER</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>That is why, when the Spider passes on the water, he hastens along; he is afraid that the Crocodile will come to catch him again.</t>
+  </si>
+  <si>
+    <t>We do not really, mean, we do not real[y mean, (that what we are going to say is true)</t>
   </si>
 </sst>
 </file>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="136.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -762,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -770,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -778,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -786,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -802,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -818,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -842,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -850,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -866,7 +866,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -874,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -882,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -890,7 +890,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -898,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -906,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -914,7 +914,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -930,7 +930,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -938,7 +938,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -946,7 +946,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -954,7 +954,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -962,7 +962,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -970,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -986,7 +986,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -994,7 +994,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1002,7 +1002,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1010,7 +1010,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1018,7 +1018,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1026,7 +1026,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1034,7 +1034,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1042,7 +1042,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1058,7 +1058,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1066,7 +1066,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1074,7 +1074,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1082,7 +1082,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1090,7 +1090,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1098,7 +1098,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1106,7 +1106,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1114,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1122,7 +1122,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1130,7 +1130,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1138,7 +1138,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1146,7 +1146,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
